--- a/medicine/Médecine vétérinaire/Claude-Casimir_Gillet/Claude-Casimir_Gillet.xlsx
+++ b/medicine/Médecine vétérinaire/Claude-Casimir_Gillet/Claude-Casimir_Gillet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Claude-Casimir Gillet, né le 19 mai 1806 à Dormans et mort à Alençon le 1er septembre 1896, est un botaniste et mycologue français.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ses études classiques terminées, le jeune Gillet, suivant les traditions de son père, vétérinaire de l’armée sous l’Empire et pendant les premières années de la Restauration, décoré de la croix de la Légion d’honneur, par Charles X, en 1825, entra comme élève militaire à l’école vétérinaire d’Alfort, en 1823. Dès ce moment, il se montra travailleur obstiné, naturaliste ardent et très habile dessinateur.
 Appelé en 1830 à faire partie de l’expédition d’Alger, Gillet employa les loisirs de son séjour en Afrique du Nord, qui dura environ quatre années, à des recherches sur la faune et la flore de la région méditerranéenne.
@@ -545,7 +559,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Chevalier de la Légion d'honneur (1847)</t>
         </is>
@@ -575,7 +591,9 @@
           <t>Iconographies de champignons</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les premières livraisons des Champignons de France parurent en 1874,à compte d'auteur.La publication s’est continuée sans interruption jusqu’à la mort de celui-ci ; il a livré les Hyménomycètes et les Discomycètes (texte et planches) et quarante-huit planches seulement des Gastéromycètes. On y retrouve les qualités de netteté, d’ordre et de précision qui caractérisent tous ses travaux. Afin de faciliter l’accès des études mycologiques aux débutants, Gillet insiste dans ses descriptions sur les notes distinctives les plus faciles à observer,  visibles à l’œil nu ou à l’aide d’une simple loupe. Mais le succès de cet ouvrage non seulement en France, mais en Allemagne, en Angleterre et en Amérique, est dû aux planches lithographiées  et coloriées à la main par l’auteur lui-même et qu’aucune publication n’a surpassé pour la beauté, la finesse et l’exactitude.
 Peltereau écrit à propos de ces six volumes:  « Telle est l’œuvre considérable de M. Gillet sur les Champignons de France. Ces 889 planches forment une des iconographies les plus complètes et les plus fidèles ... nous devons lui être reconnaissants d'avoir doté notre pays d'une collection de figures aussi intéressantes ».  Les Hyménomycètes pp. 825, (1); Hyménomycètes. Numéros d'ordre des planches parues jusqu'en 1890 pp. 14; (Atlas:) Les Hyménomycètes. 712 planches. (Texte:) Les Discomycètes pp. 230. (Atlas:) Discomycètes &amp; Gastéromycètes. 173 (of 174) 
@@ -609,13 +627,15 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Les champignons qui croissent en France : description et iconographie, Paris, Baillière, 1878, in-8°, 133 planches, 828 p., 2 vol. (1 de texte et 1 de 133 planches)
 Agaricinées, partie 1. 1893
 Les Discomycètes, Alençon : E. de Broise', 1879, 230 pp. (Lire en ligne : Gallica, Biblioteca digital)
 Les Hyménomycètes, ou, Description de tous les champignons (fungi) qui croissent en France, avec l'indication de leurs propriétés utiles ou vénéneuses , Alençon : Ch. Thomas, 1874, 828 pp. (lire en ligne : Gallica, Biblioteca digital)
-Nouvelle flore française, descriptions succinctes et rangées par tableaux dichotomiques des plantes qui croissent spontanément en France et de celles qu'on y cultive en grand avec l'application de leurs propriétés et de leurs usages en médecine, en hygiène vétérinaire, dans les arts et dans l'économie domestique, ouvrage suivi d'une table générale des espèces et de leur synonymes, Paris : Garnier frères, 1863,  XXIV + 775 pages, illustré de 101 planches botaniques gravées, dans le texte. En collaboration avec Jean-Henri Magne [1].
+Nouvelle flore française, descriptions succinctes et rangées par tableaux dichotomiques des plantes qui croissent spontanément en France et de celles qu'on y cultive en grand avec l'application de leurs propriétés et de leurs usages en médecine, en hygiène vétérinaire, dans les arts et dans l'économie domestique, ouvrage suivi d'une table générale des espèces et de leur synonymes, Paris : Garnier frères, 1863,  XXIV + 775 pages, illustré de 101 planches botaniques gravées, dans le texte. En collaboration avec Jean-Henri Magne .
 Tableaux analytique des hyménomycètes.  Alençon Typographie et Lithographie  A. LEPAGE   1884  199 pages</t>
         </is>
       </c>
@@ -644,7 +664,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Arthur-Louis Letacq, La Revue normande, Alençon, A. Herpin, vol. 5-6, 1896, p. 65-7.</t>
         </is>
